--- a/tools/excel/ict-minimal/ict-minimal.xlsx
+++ b/tools/excel/ict-minimal/ict-minimal.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="library_content" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="requirements" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="library_meta" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="requirements_meta" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="requirements_content" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="scores_meta" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="scores_content" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,354 +428,192 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>library_urn</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>urn:intuitem:risk:library:ict-minimal</t>
+          <t>library</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>library_version</t>
+          <t>urn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>urn:intuitem:risk:library:ict-minimal</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>library_locale</t>
+          <t>version</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>library_ref_id</t>
+          <t>locale</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ict-minimal</t>
+          <t>en</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>library_name</t>
+          <t>ref_id</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ICT - Minimum standard</t>
+          <t>ict-minimal</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>library_description</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minimum standard for improving ICT resilience - Version may 2023</t>
+          <t>ICT - Minimum standard</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>library_copyright</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Creative Commons BY.</t>
+          <t>Minimum standard for improving ICT resilience - Version may 2023</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>library_provider</t>
+          <t>copyright</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Swiss FONES</t>
+          <t>Creative Commons BY.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>library_packager</t>
+          <t>provider</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>intuitem</t>
+          <t>Swiss FONES</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>framework_urn</t>
+          <t>packager</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>urn:intuitem:risk:framework:ict-minimal</t>
+          <t>intuitem</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>framework_ref_id</t>
+          <t>name[de]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ict-minimal</t>
+          <t>IKT - Minimalstandard</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>framework_name</t>
+          <t>description[de]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ICT - Minimum standard</t>
+          <t>Minimal standard zur Verbesserung der IKT-Resilienz -</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>framework_description</t>
+          <t>name[fr]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Minimum standard for improving ICT resilience - Version may 2023</t>
+          <t>Norme minimale TIC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>library_name[de]</t>
+          <t>description[fr]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IKT - Minimalstandard</t>
+          <t>Norme minimale pour améliorer la résilience - version mai 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>library_description[de]</t>
+          <t>name[it]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minimal standard zur Verbesserung der IKT-Resilienz - </t>
+          <t>Standard minimo TIC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>framework_name[de]</t>
+          <t>description[it]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IKT - Minimalstandard</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>framework_description[de]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Minimal standard zur Verbesserung der IKT-Resilienz</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>library_name[fr]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Norme minimale TIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>library_description[fr]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Norme minimale pour améliorer la résilience - version mai 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>framework_name[fr]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Norme minimale TIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>framework_description[fr]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Norme minimale pour améliorer la résilience - version mai 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>library_name[it]</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Standard minimo TIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>library_description[it]</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>Standard minimo per migliorare la resilienza delle TIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>framework_name[it]</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Standard minimo TIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>framework_description[it]</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Standard minimo per migliorare la resilienza delle TIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>framework_min_score</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>framework_max_score</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>tab</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>requirements</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>requirements</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>tab</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>scores</t>
         </is>
       </c>
     </row>
@@ -783,6 +623,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>base_urn</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:req_node:ict-minimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>urn</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:framework:ict-minimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ref_id</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ict-minimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ICT - Minimum standard</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Minimum standard for improving ICT resilience - Version may 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>name[de]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IKT - Minimalstandard</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>description[de]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Minimal standard zur Verbesserung der IKT-Resilienz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>name[fr]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Norme minimale TIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>description[fr]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Norme minimale pour améliorer la résilience - version mai 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>name[it]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Standard minimo TIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>description[it]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Standard minimo per migliorare la resilienza delle TIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>min_score</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>max_score</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>scores_definition</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -859,7 +898,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>1</v>
       </c>
@@ -873,8 +911,6 @@
           <t>Identify</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>Identifizieren (ID-Identify)</t>
@@ -890,12 +926,8 @@
           <t>Identificare (ID-Identify)</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
         <v>2</v>
       </c>
@@ -914,7 +946,6 @@
           <t>The data, personnel, devices, systems, and facilities that enable the organization to achieve business purposes are identified and managed consistent with their relative importance to business objectives and the organization’s risk strategy.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Inventar Management (Assest Management ID.AM)</t>
@@ -960,16 +991,11 @@
           <t>ID.AM-1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Draw up an inventory-taking process which ensures that you have a complete inventory of all your ICT assets at all times.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>Erarbeiten Sie einen Inventarisierungsprozess welcher sicherstellt, dass zu jedem Zeitpunkt ein vollständiges Inventar Ihrer IKT-Betriebsmittel (Assets) vorhanden ist.</t>
@@ -1000,16 +1026,11 @@
           <t>ID.AM-2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Produce an inventory of all of the software platforms/licences and applications within your organisation.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>Inventarisieren Sie all ihre Softwareplattformen / -Lizenzen und Applikationen innerhalb Ihrer Organisation.</t>
@@ -1040,16 +1061,11 @@
           <t>ID.AM-3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Catalogue all of your internal communication and data flows.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>Organisatorische Kommunikation und Datenflüsse werden abgebildet.</t>
@@ -1080,16 +1096,11 @@
           <t>ID.AM-4</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Catalogue all external ICT systems that are relevant to your organisation.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>Externe Informationssysteme werden katalogisiert.</t>
@@ -1120,16 +1131,11 @@
           <t>ID.AM-5</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Resources (e.g., hardware, devices, data, time, personnel, and software) are prioritized based on their classification, criticality, and business value</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>Ressourcen (z. B. Hardware, Geräte, Daten, Zeit, Personal und Software) werden basierend auf ihrer Klassifizierung, Kritikalität und ihrem Geschäftswert priorisiert.</t>
@@ -1160,16 +1166,11 @@
           <t>ID.AM-6</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Cybersecurity roles and responsibilities for the entire workforce and third-party stakeholders (e.g., suppliers, customers, partners) are established.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>Cybersecurity-Rollen und -Verantwortlich-keiten für die gesamte Belegschaft und externe Stakeholder (z. B. Lieferanten, Kunden, Partner) sind festgelegt.</t>
@@ -1187,7 +1188,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="n">
         <v>2</v>
       </c>
@@ -1206,7 +1206,6 @@
           <t>The business’s objectives, tasks and activities are rated and prioritised. This information is used as a basis for allocating responsibilities</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>Geschäftsumfeld (Business Environment ID.BE)</t>
@@ -1252,16 +1251,11 @@
           <t>ID.BE-1</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Identify, document and communicate the exact role of your business within the (critical) supply chain.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>Die Rolle Ihres Unternehmens innerhalb der (kritischen) Versorgungskette ist identifiziert, dokumentiert und kommuniziert.</t>
@@ -1292,16 +1286,11 @@
           <t>ID.BE-2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>The importance of the organisation as a critical infrastructure operator, and its position within the critical sector, is identified and communicated.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>Die Bedeutung der Organisation als kritische Infrastruktur und ihre Position innerhalb des kritischen Sektors ist identifiziert und kommuniziert.</t>
@@ -1332,16 +1321,11 @@
           <t>ID.BE-3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Objectives, tasks and activities within the organisation are prioritised and rated.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>Die Ziele, Aufgaben und Aktivitäten innerhalb der Organisation sind bewertet und priorisiert.</t>
@@ -1372,16 +1356,11 @@
           <t>ID.BE-4</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Dependencies and critical functions for delivery of critical services are established.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>Abhängigkeiten und kritische Funktionen für die Bereitstellung kritischer Dienste sind festgelegt.</t>
@@ -1412,16 +1391,11 @@
           <t>ID.BE-5</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Resilience requirements to support delivery of critical services are established for all operating states (e.g. under duress/attack, during recovery, normal operations).</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>Für alle Betriebszustände (z. B. unter Zwang/Angriff, während der Wiederherstellung, im Normalbetrieb) sind die Anforderungen an die Widerstandsfähigkeit zur Unterstützung der Erbringung kritischer Dienste festgelegt.</t>
@@ -1439,7 +1413,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" t="n">
         <v>2</v>
       </c>
@@ -1458,7 +1431,6 @@
           <t>Governance determines responsibilities, monitors, and ensures compliance with regulatory, legal and operational requirements from the business environment.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>Governance (Governance ID.GV):</t>
@@ -1504,16 +1476,11 @@
           <t>ID.GV-1</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Organizational cybersecurity policy is established and communicated</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>Vorgaben zur Informationssicherheit sind im Unternehmen festgelegt und kommuniziert.</t>
@@ -1544,16 +1511,11 @@
           <t>ID.GV-2</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>Information security roles and responsibilities are coordinated with internal roles (e.g. those in risk management) and external partners.</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>Rollen und Verantwortlichkeiten im Bereich der Informationssicherheit sind mit internen Rollen (z.B. aus dem Riskmanagement) sowie externen Partnern koordiniert.</t>
@@ -1584,16 +1546,11 @@
           <t>ID.GV-3</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Ensure that your organisation complies with all statutory and regulatory cybersecurity requirements, including those applicable to data protection.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Ihre Organisation alle gesetzlichen und regulatorischen Vorgaben im Bereich der Cybersecurity erfüllt, inkl. Vorgaben zum Datenschutz.</t>
@@ -1624,16 +1581,11 @@
           <t>ID.GV-4</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Ensure that cybersecurity risks are embedded in business-wide risk management structures.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Cyberrisiken Teil des unternehmensweiten Risikomanagements sind.</t>
@@ -1651,7 +1603,6 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
         <v>2</v>
       </c>
@@ -1670,7 +1621,6 @@
           <t>The organisation understands the effects of cybersecurity risks on business operations, assets and individuals, including reputational risks.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>Risikomanagement (Risk Assessment ID.RA):</t>
@@ -1716,16 +1666,11 @@
           <t>ID.RA-1</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Identify the (technical) vulnerabilities of your assets, and document them.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>Identifizieren Sie die (technischen) Verwundbarkeiten ihrer Betriebsmittel und dokumentieren Sie diese.</t>
@@ -1756,16 +1701,11 @@
           <t>ID.RA-2</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>Share intelligence regularly in fora and other bodies to stay up to date about cybersecurity threats.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>Aktuelle Informationen über Cyber-Bedrohungen werden durch regelmässigen Austausch in Foren und Gremien erhalten.</t>
@@ -1796,16 +1736,11 @@
           <t>ID.RA-3</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Identify and document internal and external cybersecurity threats.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>Identifizieren und dokumentieren Sie interne und externe Cyberbedrohungen.</t>
@@ -1836,16 +1771,11 @@
           <t>ID.RA-4</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>Identify the possible business impacts of cybersecurity threats, and calculate the probability of their occurring.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>Identifizieren Sie mögliche Auswirkungen der Cyber-Bedrohungen auf die Geschäftstätigkeit und bewerten Sie ihre Eintretenswahrscheinlichkeit.</t>
@@ -1876,16 +1806,11 @@
           <t>ID.RA-5</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>Rate the risks to your organisation based on threats, vulnerabilities, impacts (on business activity) and probabilities.</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
           <t>Bewerten Sie die Risiken für Ihre Organisation, basierend auf den Bedrohungen, Verwundbarkeiten, Auswirkungen (auf die Geschäftstätigkeit) und Eintretenswahrscheinlichkeiten.</t>
@@ -1916,16 +1841,11 @@
           <t>ID.RA-6</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>Define possible immediate responses should a risk occur, and prioritise these measures.</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
           <t>Definieren Sie mögliche Sofortmassnahmen bei Eintritt eines Risikos und priorisieren Sie diese.</t>
@@ -1943,7 +1863,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
         <v>2</v>
       </c>
@@ -1962,7 +1881,6 @@
           <t>Determine the priorities, constraints and maximum risk tolerances of your organisation. On this basis, assess your operational risks.</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>Risikomanagement Strategie (Risk Management Strategy ID.RM):</t>
@@ -2008,16 +1926,11 @@
           <t>ID.RM-1</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Establish risk management processes, manage them actively and have them confirmed by the persons/stakeholders concerned.</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>Etablieren Sie Risikomanagementprozesse, managen Sie diese aktiv und lassen Sie sich von den Beteiligten Personen / Anspruchsgruppen bestätigen.</t>
@@ -2048,16 +1961,11 @@
           <t>ID.RM-2</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>Define and communicate your organisation›s maximum risk tolerance.</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>Definieren und kommunizieren Sie das maximal tragbare Risiko Ihrer Organisation.</t>
@@ -2088,16 +1996,11 @@
           <t>ID.RM-3</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>Ensure that maximum risk tolerance is calculated taking into account your organisation’s importance as an operator of a critical infrastructure. This calculation should also be informed by sector-specific risk analyses.</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass die Definition des maximal tragbaren Risikos unter der Berücksichtigung der Bedeutung als kritischer Infrastruktur und unter Einbezug von sektorspezifischen Risikoanalysen erstellt wurde.</t>
@@ -2115,7 +2018,6 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
         <v>2</v>
       </c>
@@ -2134,7 +2036,6 @@
           <t>Determine priorities, constraints, and the maximum risks that your organisation is willing to accept in connection with supplier-related risks.</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t xml:space="preserve">Lieferketten Risikomanagement </t>
@@ -2180,16 +2081,11 @@
           <t>ID.SC-1</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>Establish clear procedures to manage supply chain risks. Have these procedures reviewed and agreed by all of the stakeholders involved.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
           <t>Prozesse für das Risikomanagement in der Cyber-Supply-Chain sind identifiziert, etabliert, bewertet, verwaltet und von den organisatorischen Interessenvertretern vereinbart.</t>
@@ -2220,16 +2116,11 @@
           <t>ID.SC-2</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>Suppliers and third party partners of information systems, components, and services are identified, prioritized, and assessed using a cyber supply chain risk assessment process.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>Lieferanten und Drittpartner von Informationssystemen, Komponenten und Dienstleistungen werden identifiziert, nach Prioritäten geordnet und anhand eines Risikobewertungs-prozesses für die CyberLieferkette bewertet.</t>
@@ -2260,16 +2151,11 @@
           <t>ID.SC-3</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>Place your suppliers and service-providers under a contractual obligation to develop and implement appropriate measures to meet the objectives and requirements of the supply chain risk management process.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>Verträge mit Lieferanten und Drittparteien  verpflichten diese, Massnahmen, zur Erfüllung der Ziele des Cybersicherheitsprogramms und des Cyber-Lieferketten Risikomanagement Plans der Organisation umzusetzen und einzuhalten.</t>
@@ -2300,16 +2186,11 @@
           <t>ID.SC-4</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>Establish a system of monitoring to ensure that all of your suppliers and service-providers are fulfilling their obligations as required. Have this confirmed on a regular basis by audit reports or technical test results.</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>Etablieren Sie ein Monitoring um sicherzustellen, dass all Ihre Lieferanten und Dienstleister ihre Verpflichtungen gemäss den Vorgaben erfüllen. Lassen sie sich dies regelmässig in Audit-Berichten oder technische Prüfergebnissen bestätigen.</t>
@@ -2340,16 +2221,11 @@
           <t>ID.SC-5</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>Work with your suppliers and service-providers to define response and recovery procedures following cybersecurity incidents. Conduct drills to test these procedures.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
           <t>Definieren Sie mit Ihren Lieferanten und Dienstleistern Reaktions- und Widerherstellungsprozesse.Testen sie diese Prozesse in Übungen.</t>
@@ -2367,7 +2243,6 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
         <v>1</v>
       </c>
@@ -2381,8 +2256,6 @@
           <t>Protect</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>Schützen (PR - Protect)</t>
@@ -2398,12 +2271,8 @@
           <t>Proteggere (PR - Protect)</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
         <v>2</v>
       </c>
@@ -2422,7 +2291,6 @@
           <t>Ensure that physical and logical access to ICT assets and facilities is restricted to authorised individuals, processes and devices, and that they can be used only for permitted activities.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>Identitätsmanagement, Authentifizierung und Zugriffsmanagement</t>
@@ -2468,16 +2336,11 @@
           <t>PR.AC-1</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>Establish a clearly defined procedure for granting and managing permissions and access data for users, devices and processes.</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
           <t>Etablieren Sie einen klar definierten Prozess zur Erteilung und Verwaltung von Berechtigungen und Zugangsdaten für Benutzer, Geräte und Prozesse.</t>
@@ -2508,16 +2371,11 @@
           <t>PR.AC-2</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>Ensure that only authorised individuals have physical access to ICT assets. Take action (on building security, for example) to ensure that ICT assets are protected from unauthorised physical access.</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Stellen sie sicher, dass nur autorisierte Personen physischen Zugriff auf die IKT-Betriebsmittel haben. Sorgen sie mit (baulichen) Massnahmen dafür, dass die IKT-Betriebsmittel vor unautorisiertem physischem Zugriff geschützt sind.</t>
@@ -2548,16 +2406,11 @@
           <t>PR.AC-3</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>Establish procedures by which to manage remote access.</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>Etablieren Sie Prozesse zur Verwaltung der Fernzugriffe.</t>
@@ -2588,16 +2441,11 @@
           <t>PR.AC-4</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>Define permission levels according to the principle of least privilege, as well as separation of functions.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
           <t>Definieren Sie Zugriffsberechtigungen und Autorisierungen unter Berücksichtigung der Grundsätze der geringsten Rechte und der Aufgabentrennung.</t>
@@ -2628,16 +2476,11 @@
           <t>PR.AC-5</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>Ensure that the integrity of your network is protected. Segregate your network both logically and physically where necessary and sensible.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass die Integrität ihres Netzwerks geschützt ist. Segmentieren und segregieren Sie Ihr Netzwerk logisch und physisch, wo notwendig und sinnvoll.</t>
@@ -2668,16 +2511,11 @@
           <t>PR.AC-6</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>Ensure that digital identities are allocated to unambiguously authenticated individuals or processes.</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass digitale Identitäten eindeutig verifizierten Personen oder Prozessen zugeordnet sind.</t>
@@ -2708,16 +2546,11 @@
           <t>PR.AC-7</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>Users, devices, and other assets are authenticated (e.g., single-factor, multi-factor) commensurate with the risk of the transaction (e.g., individuals’ security and privacy risks and other organizational risks).</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
           <t>Die Authentifizierung von Benutzern, Geräten und anderen Vermögenswerten (z. B. Ein-Faktor- oder Mehr-Faktor-Authentifizierung) erfolgt entsprechend dem Risiko der Transaktion (z. B. Sicherheits- und Datenschutzrisiken für Einzelpersonen und andere Unternehmensrisiken).</t>
@@ -2735,7 +2568,6 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
         <v>2</v>
       </c>
@@ -2754,7 +2586,6 @@
           <t>Ensure that your staff and external partners receive appropriate, regular training on all cybersecurity matters. Ensure that your staff and external partners perform their security-related tasks in accordance with the related requirements and procedures.</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>Awareness and Training (PR.AT):</t>
@@ -2800,16 +2631,11 @@
           <t>PR.AT-1</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>Ensure that all members of staff are informed and trained on cybersecurity.</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass alle Mitarbeitenden bezüglich Cybersecurity informiert und geschult sind.</t>
@@ -2840,16 +2666,11 @@
           <t>PR.AT-2</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>Ensure that higher-level users are particularly aware of their role and responsibility.</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Anwender mit höheren Berechtigungsstufen sich ihrer Rolle und Verantwortung besonders bewusst sind.</t>
@@ -2880,16 +2701,11 @@
           <t>PR.AT-3</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>Ensure that all third-party stakeholders (suppliers, customers and partners) are aware of their role and responsibility.</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass sich alle beteiligten Akteure ausserhalb Ihres Unternehmens (Lieferanten, Kunden, Partner) ihrer Rolle und Verantwortung bewusst sind.</t>
@@ -2920,16 +2736,11 @@
           <t>PR.AT-4</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>Ensure that all managers are aware of their particular role and responsibility.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass sich alle Führungskräfte ihrer besonderen Rolle und Verantwortung bewusst sind.</t>
@@ -2960,16 +2771,11 @@
           <t>PR.AT-5</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>Ensure that those in charge of physical security and information security are aware of their particular role and responsibilities.</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass die Verantwortlichen für physische Sicherheit und Informationssicherheit sich ihrer besonderen Rolle und Verantwortung bewusst sind.</t>
@@ -2987,7 +2793,6 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
       <c r="B53" t="n">
         <v>2</v>
       </c>
@@ -3006,7 +2811,6 @@
           <t>Ensure that information, data and data carriers are managed in a way which protects the confidentiality, integrity and availability of the data in accordance with the organisation’s risk strategy.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>Datensicherheit (Data Security PR.DS)</t>
@@ -3052,16 +2856,11 @@
           <t>PR.DS-1</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>Ensure that stored data is protected (against violations of confidentiality, integrity and availability).</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass gespeicherte Daten geschützt sind (vor Verletzungen der Vertraulichkeit, Integrität und Verfügbarkeit).</t>
@@ -3092,16 +2891,11 @@
           <t>PR.DS-2</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>Ensure that data is protected while in transit (against violations of confidentiality, integrity and availability).</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Daten währen der Übertragung (vor Verletzungen der Vertraulichkeit, Integrität und Verfügbarkeit) geschützt sind.</t>
@@ -3132,16 +2926,11 @@
           <t>PR.DS-3</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>Ensure that you have a formal procedure in place for your ICT assets which protects data upon removal, transfer or the replacement of those assets.</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass für Ihre IKT-Betriebsmittel ein formaler Prozess etabliert ist, welcher die Daten bei Entfernung, Verschiebung oder Ersatz der Betriebsmittel schützt.</t>
@@ -3172,16 +2961,11 @@
           <t>PR.DS-4</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>Ensure that your ICT assets have sufficient capacity to ensure data availability is maintained.</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass ihre IKT-Betriebsmittel bezüglich der Verfügbarkeit der Daten über ausreichende Kapazitätsreserven verfügen.</t>
@@ -3212,16 +2996,11 @@
           <t>PR.DS-5</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>Ensure that appropriate action has been taken to prevent data leaks.</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass adäquate Massnahmen gegen den Abfluss von Daten (Datenlecks) implementiert sind.</t>
@@ -3252,16 +3031,11 @@
           <t>PR.DS-6</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>Establish a procedure to check the integrity of firmware, operating systems, application software and data.</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
           <t>Etablieren Sie einen Prozess, um Firmware, Betriebssysteme, Anwendungssoftware und Daten hinsichtlich ihrer Integrität zu verifizieren.</t>
@@ -3292,16 +3066,11 @@
           <t>PR.DS-7</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>Provide a development and testing IT environment which is completely separate from productive systems.</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
           <t>Stellen Sie eine IT-Umgebung für das Entwickeln und Testen zur Verfügung, welche komplett unabhängig von den produktiven Systemen ist.</t>
@@ -3332,16 +3101,11 @@
           <t>PR.DS-8</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>Establish a procedure to check the integrity of the hardware you use.</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
           <t>Etablieren Sie einen Prozess, um die eingesetzte Hardware hinsichtlich ihrer Integrität zu verifizieren.</t>
@@ -3359,7 +3123,6 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
       <c r="B62" t="n">
         <v>2</v>
       </c>
@@ -3378,7 +3141,6 @@
           <t>Draw up policies to protect information systems and assets. Apply these policies to protect those information systems and assets.</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>Schutz von Daten (Information Protection Processes and Procedures PR.IP):</t>
@@ -3424,16 +3186,11 @@
           <t>PR.IP-1</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>Draw up a baseline configuration for your information and communication infrastructure, as well as for industrial control systems. Ensure that this baseline configuration complies with typical security principles (e.g. N-1 redundancy, least-functionality configuration, etc.).</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
           <t>Erstellen Sie eine Standardkonfiguration für die Informations- und Kommunikationsinfrastruktur, sowie für die industriellen Kontrollsysteme. Stellen sie sicher, dass diese Standardkonfiguration typische Security-Prinzipien (z.B. N-1 Redundanz, Minimalkon-figuration, etc.) einhält.</t>
@@ -3464,16 +3221,11 @@
           <t>PR.IP-2</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>Establish a life cycle procedure for the use of ICT assets.</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
           <t>Etablieren Sie einen Lebenszyklus-Prozess für den Einsatz von IKT-Betriebsmitteln.</t>
@@ -3504,16 +3256,11 @@
           <t>PR.IP-3</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>Establish a procedure to monitor configuration changes.</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
           <t>Etablieren Sie einen Prozess zur Kontrolle von Konfigurationsänderungen.</t>
@@ -3544,16 +3291,11 @@
           <t>PR.IP-4</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>Ensure that backups of your information are conducted, maintained and tested on a regular basis (check that you are able to revert to your backups).</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Sicherungen (Backups) Ihrer Informationen regelmässig durchgeführt, bewirtschaftet und getestet werden (Rückspielbarkeit der Backups testen).</t>
@@ -3584,16 +3326,11 @@
           <t>PR.IP-5</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>Ensure that you comply with all (regulatory) requirements and policies concerning your physical assets.</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass sie alle (regulatorischen) Vorgaben und Richtlinien hinsichtlich den physischen Betriebsmittel erfüllen.</t>
@@ -3624,16 +3361,11 @@
           <t>PR.IP-6</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>Ensure that data is destroyed according to requirements.</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Daten gemäss den Vorgaben vernichtet werden.</t>
@@ -3664,16 +3396,11 @@
           <t>PR.IP-7</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>Ensure that your information security procedures are enhanced and improved continuously.</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass ihre Prozesse zur Informationssicherheit kontinuierlich weiterentwickelt und verbessert werden.</t>
@@ -3704,16 +3431,11 @@
           <t>PR.IP-8</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>Share information about the effectiveness of various protection technologies with your partners.</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
           <t>Tauschen Sie sich bezüglich der Effektivität verschiedener Schutztechnologien mit Ihren Partnern aus.</t>
@@ -3744,16 +3466,11 @@
           <t>PR.IP-9</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>Establish response procedures for any cyber incidents that may occur. (Incident response planning, business continuity management, incident recovery, disaster recovery.)</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
           <t>Etablieren Sie Prozesse zur Reaktion auf eingetretene Cyber-Vorfälle. (Incident Response-Planning, Business Continuity Management, Incident Recovery, Disaster Recovery).</t>
@@ -3784,16 +3501,11 @@
           <t>PR.IP-10</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>Test response and recovery plans.</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
           <t>Testen sie die Reaktions- und Widerherstellungspläne.</t>
@@ -3824,16 +3536,11 @@
           <t>PR.IP-11</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>Embed aspects of cybersecurity in the staff recruitment process at an early stage (e.g. by conducting background checks and individual security checks).</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>Etablieren Sie Aspekte der Cybersecurity bereits in den Personalrekrutierungsprozess (z.B. durch die Etablierung von Background-checks / Personensicherheitsprüfungen).</t>
@@ -3864,16 +3571,11 @@
           <t>PR.IP-12</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>Develop and implement a procedure for dealing with identified vulnerabilities.</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
           <t>Entwickeln und implementieren Sie einen Prozess zum Umgang mit erkannten Schwachstellen.</t>
@@ -3891,7 +3593,6 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
       <c r="B75" t="n">
         <v>2</v>
       </c>
@@ -3910,7 +3611,6 @@
           <t>Ensure that maintenance and repair work to components of the ICT system and/or the ICS are conducted in accordance with policies and procedures.</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
           <t>Wartung (Maintenance PR.MA):</t>
@@ -3956,16 +3656,11 @@
           <t>PR.MA-1</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>Ensure that the operation and maintenance of, and any repairs to assets are logged. Ensure that such work is conducted promptly and uses only those means which have been tested and approved.</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass der Betrieb, die Wartung und allfällige Reparaturen an den Betriebsmitteln aufgezeichnet und dokumentiert werden (Logging). Stellen Sie sicher, dass diese zeitnah durchgeführt werden und nur unter Einsatz von geprüften und freigegebenen Mitteln erfolgen.</t>
@@ -3996,16 +3691,11 @@
           <t>PR.MA-2</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>Ensure that maintenance work on your systems that is carried out via remote access is logged. Ensure that no unauthorised access is possible.</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Unterhaltsarbeiten an Ihren Systemen, die über Fernzugriffe erfolgen, aufgezeichnet und dokumentiert werden. Stellen Sie sicher, dass kein unautorisierter Zugriff möglich ist.</t>
@@ -4023,7 +3713,6 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
       <c r="B78" t="n">
         <v>2</v>
       </c>
@@ -4042,7 +3731,6 @@
           <t>Install technical security solutions in accordance with requirements and procedures to ensure the security and resilience of your ICT systems and their data.</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
           <t>Protective Technology (PR.PT):</t>
@@ -4088,16 +3776,11 @@
           <t>PR.PT-1</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>Define requirements for audits and log records. Produce and check the regular logs in accordance with those requirements and policies.</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
           <t>Definieren Sie Vorgaben zu Audits und Log-Aufzeichnungen. Erstellen und prüfen Sie die regelmässigen Logs gemäss den Vorgaben und Richtlinien.</t>
@@ -4128,16 +3811,11 @@
           <t>PR.PT-2</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>Ensure that removable media are protected, and that they are used only in accordance with policy.</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Wechseldatenträger geschützt sind und dass sie nur gemäss den Richtlinien eingesetzt werden.</t>
@@ -4168,16 +3846,11 @@
           <t>PR.PT-3</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>Ensure that your system is configured so that a minimum level of functionality is guaranteed at all times.</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Ihr System so konfiguriert ist, dass jederzeit eine Minimalfunktionalität gewährleistet wird (Systemhärtung).</t>
@@ -4208,16 +3881,11 @@
           <t>PR.PT-4</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>Ensure that your communications and control networks are protected.</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass ihre Kommunikations- und Steuernetzwerke geschützt sind.</t>
@@ -4248,16 +3916,11 @@
           <t>PR.PT-5</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>Ensure that mechanisms (e.g. failsafe, load balancing, hot swap) are implemented to achieve resilience requirements in normal and adverse situations.</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Mechanismen (z.B. Ausfallsicherheit, Lastenausgleich, Hot-Swap) implementiert sind, um die Anforderungen an die Ausfallsicherheit in normalen und ungünstigen Situationen zu erfüllen.</t>
@@ -4275,7 +3938,6 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
       <c r="B84" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +3951,6 @@
           <t>Detect</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>Detektieren (DE - Detect)</t>
@@ -4306,12 +3966,8 @@
           <t>Intercettare (DE - Detect)</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
       <c r="B85" t="n">
         <v>2</v>
       </c>
@@ -4330,7 +3986,6 @@
           <t>Ensure that anomalies (abnormal behaviours) and security-related events are detected swiftly and that the potential impact of incidents is understood.</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
           <t>Vorfälle (Anomalies and Events DE.AE):</t>
@@ -4376,16 +4031,11 @@
           <t>DE.AE-1</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
           <t>Define a baseline for permitted network operations and expected data flows for users and systems. Manage these values continuously.</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
           <t>Definieren sie Standardwerte für zulässige Netzwerkoperationen und die zu erwartenden Datenflüsse für Anwender und Systeme. Managen sie diese Werte fortlaufend.</t>
@@ -4416,16 +4066,11 @@
           <t>DE.AE-2</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>Ensure that detected cybersecurity incidents are analysed to understand their targets and methods.</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass entdeckte Cybersecurity Vorfälle hinsichtlich ihrer Ziele und ihrer Methoden analysiert werden.</t>
@@ -4456,16 +4101,11 @@
           <t>DE.AE-3</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
           <t>Ensure that information on cybersecurity incidents is aggregated and correlated from multiple sources and sensors.</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Informationen zu Cybersecurityvorfällen aus verschiedenen Quellen und Sensoren aggregiert und aufbereitet werden.</t>
@@ -4496,16 +4136,11 @@
           <t>DE.AE-4</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
           <t>Determine the impact of possible events.</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
           <t>Bestimmen Sie die Auswirkungen möglicher Ereignissen.</t>
@@ -4536,16 +4171,11 @@
           <t>DE.AE-5</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>Define the thresholds above which cybersecurity incidents trigger an alert.</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
           <t>Definieren Sie Schwellenwerte die für Vorfallswarnungen festgelegt sind.</t>
@@ -4563,7 +4193,6 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
       <c r="B91" t="n">
         <v>2</v>
       </c>
@@ -4582,7 +4211,6 @@
           <t>Ensure that ICT systems, including all assets, are monitored at regular intervals to detect cybersecurity incidents, and also to verify the effectiveness of protective measures.</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
           <t>Überwachung (Security Continuous Monitoring DE.CM):</t>
@@ -4628,16 +4256,11 @@
           <t>DE.CM-1</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>Monitor networks continuously to detect potential cybersecurity events.</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
           <t>Etablieren Sie ein kontinuierliches Netzwerkmonitoring, um potentielle Cybersecurity-vorfälle zu entdecken.</t>
@@ -4668,16 +4291,11 @@
           <t>DE.CM-2</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>Continuous monitoring/surveillance of all physical assets and buildings to detect cybersecurity incidents.</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
           <t>Etablieren Sie ein kontinuierliches Monitoring / Überwachung aller physischen Betriebsmittel und Gebäude, um Cybersecurityvorfälle entdecken zu können.</t>
@@ -4708,16 +4326,11 @@
           <t>DE.CM-3</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>Establish a system to monitor ICT use on the part of your staff, to detect potential cybersecurity incidents.</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
           <t>Die Aktivitäten der Mitarbeiter werden überwacht, um potenzielle Cybersicherheitsvorfälle zu erkennen.</t>
@@ -4748,16 +4361,11 @@
           <t>DE.CM-4</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>Ensure that malware can be detected.</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Schadsoftware entdeckt werden kann.</t>
@@ -4788,16 +4396,11 @@
           <t>DE.CM-5</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
           <t>Ensure that malware can be detected on mobile devices.</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Schadsoftware auf Mobilgeräten entdeckt werden kann.</t>
@@ -4828,16 +4431,11 @@
           <t>DE.CM-6</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>Ensure that the activities of external service providers can be monitored so that cybersecurity incidents can be detected.</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass die Aktivitäten von externen Dienstleistern überwacht werden, so dass Cybersecurityvorfälle entdeckt werden können.</t>
@@ -4868,16 +4466,11 @@
           <t>DE.CM-7</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>Monitor your system continuously to ensure that activities or access by unauthorised persons, devices and software are detected.</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
           <t>Überwachen Sie ihre Systeme laufend, um sicherzustellen, dass Aktivitäten / Zugriffe von unberechtigten Personen, Geräten und Software erkannt wird.</t>
@@ -4908,16 +4501,11 @@
           <t>DE.CM-8</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>Vulnerability scans are performed.</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
           <t>Führen Sie Verwundbarkeitsscans durch.</t>
@@ -4935,7 +4523,6 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
       <c r="B100" t="n">
         <v>2</v>
       </c>
@@ -4954,7 +4541,6 @@
           <t>Processes and instructions for detecting cybersecurity incidents are cultivated, maintained and tested.</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>Erkennungsprozesse (Detection Processes DE.DP):</t>
@@ -5000,16 +4586,11 @@
           <t>DE.DP-1</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>Define clear roles and responsibilities so that there is no doubt about who is responsible for what, and who holds what authority.</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
           <t>Definieren Sie klare Rollen und Verantwortlichkeiten, so dass klar ist, wer wofür zuständig ist und wer welche Kompetenzen hat.</t>
@@ -5040,16 +4621,11 @@
           <t>DE.DP-2</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>Ensure that detection processes comply with all requirements and conditions.</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass die Detektionsprozesse all ihre Vorgaben und Bedingungen erfüllen.</t>
@@ -5080,16 +4656,11 @@
           <t>DE.DP-3</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>Test your detection processes.</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
           <t>Testen Sie ihre Detektionsprozesse.</t>
@@ -5120,16 +4691,11 @@
           <t>DE.DP-4</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>Communicate detected incidents to the relevant actors (e.g. suppliers, customers, partners, authorities, etc.).</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
           <t>Kommunizieren Sie detektierte Vorfälle an die zuständigen Stellen (z.B. Lieferanten, Kunden, Partner, Behörden, etc.).</t>
@@ -5160,16 +4726,11 @@
           <t>DE.DP-5</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>Improve your detection processes continuously.</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
           <t>Verbessern Sie Ihre Detektionsprozesse kontinuierlich.</t>
@@ -5187,7 +4748,6 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
       <c r="B106" t="n">
         <v>1</v>
       </c>
@@ -5201,8 +4761,6 @@
           <t>Respond</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
           <t>Reagieren (RS - Respond)</t>
@@ -5218,12 +4776,8 @@
           <t>Reagire (RS - Respond)</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
       <c r="B107" t="n">
         <v>2</v>
       </c>
@@ -5242,7 +4796,6 @@
           <t>Draw up a response plan to address detected cybersecurity incidents. Ensure that this response plan is executed promptly and properly in any incident.</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
           <t>Reaktionsplanung (Response Planning RS.RP):</t>
@@ -5288,16 +4841,11 @@
           <t>RS.RP-1</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>Ensure that the response plan is executed promptly and properly during or after a detected incident.</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass der Reaktionsplan während oder nach einem detektierten Cyber-securityvorfall korrekt und zeitnah durchgeführt wird.</t>
@@ -5315,7 +4863,6 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
       <c r="B109" t="n">
         <v>2</v>
       </c>
@@ -5334,7 +4881,6 @@
           <t>Ensure that your response procedures are coordinated with internal and external stakeholders. Ensure that, should an event occur, you receive support from public-sector bodies if necessary and appropriate.</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
           <t>Kommunikation (Communications RS.CO):</t>
@@ -5380,16 +4926,11 @@
           <t>RS.CO-1</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
           <t>Ensure that all individuals are familiar with their response and the sequence of their actions if and when a cybersecurity incident occurs.</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass alle Personen ihre Aufgaben bezüglich der Reaktion und der Reihenfolge ihrer Handlungen auf eingetretene Cybersecurityvorfälle kennen.</t>
@@ -5420,16 +4961,11 @@
           <t>RS.CO-2</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>Define reporting criteria and ensure that cybersecurity incidents are reported and processed in accordance with these criteria.</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
           <t>Definieren Sie Kriterien für Meldungen und stellen Sie sicher, dass Cybersecurityvorfälle gemäss diesen Kriterien gemeldet und bearbeitet werden.</t>
@@ -5460,16 +4996,11 @@
           <t>RS.CO-3</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>Share information and findings about detected cybersecurity incidents in accordance with the defined criteria.</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
           <t>Teilen Sie Informationen und Erkenntnisse zu detektierten Cybersecurityvorfällen gemäss den definierten Kriterien.</t>
@@ -5500,16 +5031,11 @@
           <t>RS.CO-4</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>Coordination with stakeholders occurs consistent with response plans</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
           <t>Die Koordinierung mit allen Beteiligten und den Anspruchsgruppen erfolgt im Einklang mit den Reaktionsplänen gemäss den vordefinierten Kriterien.</t>
@@ -5540,16 +5066,11 @@
           <t>RS.CO-5</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>Voluntary information sharing occurs with external stakeholders to achieve broader cybersecurity situational awareness</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
           <t>Es werden regelmässig freiwillig Informationen mit externen Akteuren ausgetauscht, um das Bewusstsein hinsichtlich der aktuellen Cybersicherheitssituation zu steigern.</t>
@@ -5567,7 +5088,6 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
       <c r="B115" t="n">
         <v>2</v>
       </c>
@@ -5586,7 +5106,6 @@
           <t>Ensure that regular analyses are conducted to permit an effective response to cybersecurity incidents.</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
           <t>Analyse (Analysis RS.AN):</t>
@@ -5632,16 +5151,11 @@
           <t>RS.AN-1</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>Ensure that notifications from detection systems are noted and investigated.</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Benachrichtigungen aus Detektionssystemen berücksichtigt und Nachforschungen ausgelöst werden.</t>
@@ -5672,16 +5186,11 @@
           <t>RS.AN-2</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
           <t>Ensure that the impact of a cybersecurity incident is properly understood.</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass die Auswirkungen eines Cybersecurityvorfalls bekannt ist und verstanden wird.</t>
@@ -5712,16 +5221,11 @@
           <t>RS.AN-3</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>Conduct a forensic analysis after any incident that occurs.</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
           <t>Führen Sie nach einem eingetretenen Vorfall forensische Analysen durch.</t>
@@ -5752,16 +5256,11 @@
           <t>RS.AN-4</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>Categorise incidents that occur in accordance with the requirements of the response plan.</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
           <t>Kategorisieren Sie eingetretene Vorfälle gemäss den Vorgaben des Reaktionsplans.</t>
@@ -5792,16 +5291,11 @@
           <t>RS.AN-5</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>Processes are established to receive, analyze and respond to vulnerabilities disclosed to the organization from internal and external sources (e.g. internal testing, security bulletins, or security researchers).</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
           <t>Richten Sie Prozesse ein, um Schwachstellen, die der Organisation aus internen und externen Quellen (z. B. interne Audits, Sicherheitsbulletins oder Sicherheitsforscher) bekannt werden, zu empfangen, zu analysieren und darauf zu reagieren.</t>
@@ -5819,7 +5313,6 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
       <c r="B121" t="n">
         <v>2</v>
       </c>
@@ -5838,7 +5331,6 @@
           <t>Act to prevent the further spread of a cybersecurity incident and to limit the potential damage.</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
           <t>Mitigation (Mitigation RS.MI):</t>
@@ -5884,16 +5376,11 @@
           <t>RS.MI-1</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>Ensure that cybersecurity incidents can be contained and their further spread blocked.</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Cybersecurityvorfälle eingegrenzt werden können und die weitere Ausbreitung unterbrochen wird.</t>
@@ -5924,16 +5411,11 @@
           <t>RS.MI-2</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>Ensure that the impact of cybersecurity incidents can be mitigated.</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass die Auswirkungen von Cybersecurityvorfällen gemindert werden können.</t>
@@ -5964,16 +5446,11 @@
           <t>RS.MI-3</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>Ensure that newly identified vulnerabilities are reduced or documented as accepted risks.</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass neu identifizierte Verwundbarkeiten reduziert oder als akzeptierte Risiken dokumentiert werden.</t>
@@ -5991,7 +5468,6 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
       <c r="B125" t="n">
         <v>2</v>
       </c>
@@ -6010,7 +5486,6 @@
           <t>Ensure that your organisation’s capacity to respond to cybersecurity incidents improves continuously by learning lessons from previous incidents.</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
           <t>Verbesserungen (Improvements RS.IM):</t>
@@ -6056,16 +5531,11 @@
           <t>RS.IM-1</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
           <t>Ensure that the findings and lessons of previous cybersecurity incidents are incorporated into your response plans.</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Erkenntnisse und Lehren aus vorangegangenen Cybersecurityvorfällen in ihre Reaktionspläne einfliessen.</t>
@@ -6096,16 +5566,11 @@
           <t>RS.IM-2</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>Update your response strategies.</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
           <t>Aktualisieren sie Ihre Reaktionsstrategien.</t>
@@ -6123,7 +5588,6 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
       <c r="B128" t="n">
         <v>1</v>
       </c>
@@ -6137,8 +5601,6 @@
           <t>Recover</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
           <t>Wiederherstellen (RC - Recover)</t>
@@ -6154,12 +5616,8 @@
           <t>Ripristinare (RC - Recover)</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
       <c r="B129" t="n">
         <v>2</v>
       </c>
@@ -6178,7 +5636,6 @@
           <t>Ensure that recovery procedures are (can be) maintained and executed to guarantee that systems can be restored swiftly.</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
           <t>Wiederherstellungsplanung (Recovery Planning RC.RP):</t>
@@ -6224,16 +5681,11 @@
           <t>RC.RP-1</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
           <t>Ensure that recovery plans can be executed properly after any cybersecurity incident.</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass der Wiederherstellungsplan nach einem eingetretenen Cybersecurityvorfall korrekt durchgeführt werden kann.</t>
@@ -6251,7 +5703,6 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
       <c r="B131" t="n">
         <v>2</v>
       </c>
@@ -6270,7 +5721,6 @@
           <t>Ensure that your recovery procedures improve continuously by learning lessons from previous recoveries.</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
           <t>Verbesserungen (Improvements RC.IM):</t>
@@ -6316,16 +5766,11 @@
           <t>RC.IM-1</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
           <t>Ensure that the findings and lessons of previous cybersecurity incidents are incorporated into your recovery plans.</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass Erkenntnisse und Lehren aus früheren Cybersecurityvorfällen in ihre Wiederherstellungspläne einfliessen.</t>
@@ -6356,16 +5801,11 @@
           <t>RC.IM-2</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
           <t>Update your recovery strategy.</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
           <t>Aktualisieren Sie ihre Wiederherstellungsstrategie.</t>
@@ -6383,7 +5823,6 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
       <c r="B134" t="n">
         <v>2</v>
       </c>
@@ -6402,7 +5841,6 @@
           <t>Coordinate your recovery activities with internal and external partners, such as internet service providers, CERT, the authorities, system integrators, etc.</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
           <t>Kommunikation (Communications RC.CO):</t>
@@ -6448,16 +5886,11 @@
           <t>RC.CO-1</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
           <t>Ensure that public perceptions of your organisation are addressed actively.</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass ihre öffentliche Wahrnehmung aktiv angegangen wird.</t>
@@ -6488,16 +5921,11 @@
           <t>RC.CO-2</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
           <t>Ensure that your organisation is perceived positively once again after any cybersecurity incident.</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
           <t>Stellen Sie sicher, dass ihre Organisation nach einem eingetretenen Cybersecurityvorfall wieder positiv wahrgenommen wird (Reputation).</t>
@@ -6528,16 +5956,11 @@
           <t>RC.CO-3</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>Communicate all of your recovery activities to internal stakeholder groups, and especially also to (senior) management.</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
           <t>Kommunizieren Sie die Wiederherstellungsaktivitäten an interne und externe Anspruchsgruppen sowie an das Führungs- und Managementteam.</t>
@@ -6559,7 +5982,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6629,25 +6095,21 @@
           <t>not implemented</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>Nicht umgesetzt</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>Pas mis en oeuvre</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>non attuata</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -6658,25 +6120,21 @@
           <t>Partial</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>Partiell umgesetzt, nicht vollständig definiert und abgenommen</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>partiellement mis en oeuvre, pas entièrement défini ni validé</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>parzialmente attuata, non definita e approvata completamente</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -6687,25 +6145,21 @@
           <t>Risk informed</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>Partiell umgesetzt, vollständig definiert und abgenommen</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>partiellement mis en oeuvre, entièrement défini et accepté</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>parzialmente attuata, definita e approvata completamente</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -6716,25 +6170,21 @@
           <t>Repeatable</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>Umgesetzt, vollständig oder grösstenteils umgesetzt, statisch</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>entièrement ou très largement mis en oeuvre, définitif ("statique")</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>attuata, completamente o in gran parte attuata, statica</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -6745,25 +6195,21 @@
           <t>Adaptive</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>Dynamisch, umgesetzt, kontinuierlich überprüft, verbessert</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>mis en oeuvre dynamiquement, contrôlé et amélioré en permanence</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>dinamica, attuata, verificata costantemente, migliorata</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
